--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R9de18b3d0aa84a17"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rd0752f3850c643f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rd0752f3850c643f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R79cae1a77d504549"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R79cae1a77d504549"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rd13cbc35ec454c64"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rd13cbc35ec454c64"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R885862eec95f4979"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R885862eec95f4979"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R56f2c04c684d46d0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R56f2c04c684d46d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R0a32cc19783d4b1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R0a32cc19783d4b1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R6e2d1464520c4795"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R6e2d1464520c4795"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R9988da360b404f26"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R9988da360b404f26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R1226d7c871fb4a3c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R1226d7c871fb4a3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rae731e8e20cf4a5f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rae731e8e20cf4a5f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R70f323483b3346fb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R70f323483b3346fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R1c46217b1be1491a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R1c46217b1be1491a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R5fe94e64555c4555"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R5fe94e64555c4555"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rb1387714ecc04a79"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rb1387714ecc04a79"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rf6bb4c52136f4f54"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rf6bb4c52136f4f54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rfba22220bde042d3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rfba22220bde042d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R19bb436b00a343bf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/65_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R19bb436b00a343bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R8d59e44e0a064fe4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
